--- a/biology/Zoologie/Gigantotrichoderes/Gigantotrichoderes.xlsx
+++ b/biology/Zoologie/Gigantotrichoderes/Gigantotrichoderes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gigantotrichoderes est un genre d'insectes coléoptères de la famille des Cerambycidae, sous-famille des Cerambycinae et de la tribu des Torneutini.
@@ -512,11 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Gigantotrichoderes a été décrit par l'entomologiste hongrois Friedrich F. Tippmann en 1953.
-Synonymie
-Mielkea (Zajciw, 1965)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gigantotrichoderes a été décrit par l'entomologiste hongrois Friedrich F. Tippmann en 1953.
+</t>
         </is>
       </c>
     </row>
@@ -541,12 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mielkea (Zajciw, 1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gigantotrichoderes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gigantotrichoderes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste d'espèces [1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces 
 Gigantotrichoderes conicicollis (Tippmann, 1953)
 Gigantotrichoderes flabellicornis  (Zajciw, 1965)</t>
         </is>
